--- a/Обрабатываемые/Опросный лист ЖД.xlsx
+++ b/Обрабатываемые/Опросный лист ЖД.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>ФИО</t>
   </si>
@@ -1361,7 +1361,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,7 +1595,9 @@
       <c r="K17" s="28"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="31"/>
+      <c r="N17" s="31" t="s">
+        <v>63</v>
+      </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>

--- a/Обрабатываемые/Опросный лист ЖД.xlsx
+++ b/Обрабатываемые/Опросный лист ЖД.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geg\Desktop\Новая папка\Обрабатываемые\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geg\Desktop\obrabotka_ol\Обрабатываемые\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>ФИО</t>
   </si>
@@ -1361,7 +1361,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,17 +1548,27 @@
       <c r="G16" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="26"/>
+      <c r="H16" s="26" t="s">
+        <v>63</v>
+      </c>
       <c r="I16" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
+      <c r="J16" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>63</v>
+      </c>
       <c r="M16" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="N16" s="25"/>
+      <c r="N16" s="25" t="s">
+        <v>63</v>
+      </c>
       <c r="O16" s="25" t="s">
         <v>63</v>
       </c>
@@ -1591,7 +1601,9 @@
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="28"/>
+      <c r="J17" s="28" t="s">
+        <v>63</v>
+      </c>
       <c r="K17" s="28"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
